--- a/metrics/R2/average time/Macroalbuminuria.xlsx
+++ b/metrics/R2/average time/Macroalbuminuria.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8127889331563898</v>
+        <v>0.7070493608180813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8127889331563898</v>
+        <v>0.7070493608180813</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8127889331563898</v>
+        <v>0.7070493608180813</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9948644737664785</v>
+        <v>0.9937736092177313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9948706811880587</v>
+        <v>0.9938028147620755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9949483789308121</v>
+        <v>0.9937280650186144</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9964251009341101</v>
+        <v>0.9952227537225585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9960804471609069</v>
+        <v>0.9952227537225585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9960804471609069</v>
+        <v>0.9952227537225585</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9860411958602002</v>
+        <v>0.9824040115471014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9849452547299317</v>
+        <v>0.9804449903421538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9836006454923457</v>
+        <v>0.9835587103998252</v>
       </c>
     </row>
   </sheetData>
